--- a/system.xlsx
+++ b/system.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ros2_robot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A073E4A8-C2CC-4E6F-BB85-69BB81CC94BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12725B36-8635-42AE-89A2-BFC2E8A14E25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B164696A-A641-4B7C-AB48-6FD2FD773484}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{B164696A-A641-4B7C-AB48-6FD2FD773484}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="原案" sheetId="1" r:id="rId1"/>
+    <sheet name="会社仕様" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1813,6 +1814,2024 @@
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1"/>
             <a:t>ロボット</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A03A49F2-97DB-44BD-B1A9-A7E1BD0C09D2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4048125" y="714375"/>
+          <a:ext cx="1190625" cy="714375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+            <a:t>Ubunutu</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+            <a:t>PC</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26C78F81-C127-4278-89B1-C61749A41270}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="952500" y="3333750"/>
+          <a:ext cx="1190625" cy="714375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+            <a:t>Dual Shock 4</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAF75B36-BBF6-4A10-BFBF-F7FEC2D56454}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7143750" y="3571875"/>
+          <a:ext cx="1190625" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>モータドライバ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18826DB4-3771-47B7-B31E-7368F7C75C76}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10477500" y="3095625"/>
+          <a:ext cx="1190625" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+            <a:t>モータ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+            <a:t>R</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="正方形/長方形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{979EEF72-7F3D-47F7-97F5-444C54E123EE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10477500" y="4048125"/>
+          <a:ext cx="1190625" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+            <a:t>モータ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+            <a:t>L</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="正方形/長方形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4061AC7-522E-4249-ACAA-62F17340C6FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7143750" y="5238750"/>
+          <a:ext cx="1190625" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+            <a:t>フルカラー</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+            <a:t>LED</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="正方形/長方形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63F8B48C-6232-4DF1-9C89-8677DC3CE190}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7143750" y="6191250"/>
+          <a:ext cx="1190625" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+            <a:t>液晶</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+            <a:t>LCD</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="正方形/長方形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52E5651C-8155-4B8B-80EC-5136D1A7B008}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2143125" y="6191250"/>
+          <a:ext cx="1190625" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+            <a:t>カメラ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="正方形/長方形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14ADA21F-09D5-4CB5-A033-0DD24792EF2E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2143125" y="5238750"/>
+          <a:ext cx="1190625" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+            <a:t>温度センサ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="直線矢印コネクタ 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30D9BC01-6D2A-4BA6-9292-FB823BBFBF51}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:endCxn id="21" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2143125" y="3690938"/>
+          <a:ext cx="1905000" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="直線矢印コネクタ 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDDC2CC7-B69C-43E4-8307-9D279AA7E668}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4524375" y="1428750"/>
+          <a:ext cx="0" cy="1905000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="直線矢印コネクタ 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6686950-72AC-48FC-86B0-6AF5A4E35ECA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4762500" y="1428750"/>
+          <a:ext cx="0" cy="1905000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="直線コネクタ 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F02F2027-704E-496D-94F5-3335B7EE9F56}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:endCxn id="4" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5238750" y="3810000"/>
+          <a:ext cx="1905000" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="コネクタ: カギ線 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{765100B0-2C76-4555-8C8E-7F95D5B91D47}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="3"/>
+          <a:endCxn id="5" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8334375" y="3333750"/>
+          <a:ext cx="2143125" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 55334"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="コネクタ: カギ線 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B758DC5-C207-466E-B05F-DEADC3205CDC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8334375" y="3810000"/>
+          <a:ext cx="2143125" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 55334"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>238124</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>238124</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="四角形: 角を丸くする 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC218223-9744-4858-856C-61B86A01EFA0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2619375" y="3571874"/>
+          <a:ext cx="952500" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>操作情報</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="四角形: 角を丸くする 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DA44A2D-8056-4A54-AA56-B444C7322551}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4057650" y="1704975"/>
+          <a:ext cx="1190625" cy="714375"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>移動ログ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>センサ情報</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>3</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>2</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="コネクタ: カギ線 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82FE8217-9EB5-409D-B8A9-5FCBA418D6EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="5000628" y="4048127"/>
+          <a:ext cx="2143123" cy="2381248"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="コネクタ: カギ線 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2A76F6C-BAE9-42B7-853A-E04FAD2C16E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="9" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3333750" y="4048125"/>
+          <a:ext cx="952500" cy="2381250"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="正方形/長方形 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4CB9A40-E6C3-476D-8526-BE7E7DB00755}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4048125" y="3333750"/>
+          <a:ext cx="1190625" cy="714375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+            <a:t>Raspberry</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+            <a:t>Pi</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+            <a:t>4</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+            <a:t>バッテリー</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="L 字 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAA660C5-EC2A-4CBB-8ED3-12F4FC5EC676}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="504825" y="476250"/>
+          <a:ext cx="11639550" cy="3810000"/>
+        </a:xfrm>
+        <a:prstGeom prst="corner">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50373"/>
+            <a:gd name="adj2" fmla="val 139487"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:scene3d>
+          <a:camera prst="orthographicFront">
+            <a:rot lat="10800000" lon="0" rev="0"/>
+          </a:camera>
+          <a:lightRig rig="threePt" dir="t"/>
+        </a:scene3d>
+        <a:sp3d/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="accent1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t">
+          <a:flatTx/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+            <a:t>ROS2</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>238124</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="四角形: 角を丸くする 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1708E21A-A5A2-4143-BDB9-49BB2817FA5A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6905625" y="2857499"/>
+          <a:ext cx="5000625" cy="1905001"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="accent2"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+            <a:t>駆動系</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="四角形: 角を丸くする 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35CC63F4-77FF-440D-8AA5-51D2DAE1EEFE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6905625" y="5000625"/>
+          <a:ext cx="2619375" cy="1905001"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="accent2"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+            <a:t>表示系</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="直線コネクタ 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{161EA4B1-BE75-40B3-B7CD-B7A6FE42D909}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5000625" y="5486400"/>
+          <a:ext cx="2143125" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>238124</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="四角形: 角を丸くする 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C75FEA6A-9F3F-4CCE-B638-B80400E92457}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="714375" y="5000624"/>
+          <a:ext cx="3810000" cy="1905001"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="accent2"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+            <a:t>センサ系</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="直線コネクタ 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC144364-14A1-42DD-B3BA-B6939BABDFAE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3333750" y="5486400"/>
+          <a:ext cx="952500" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>238120</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>238120</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="L 字 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4E9AF60-EAE9-4078-B5B6-65614FA27AEA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="476245" y="2619375"/>
+          <a:ext cx="11668125" cy="4524376"/>
+        </a:xfrm>
+        <a:prstGeom prst="corner">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 52731"/>
+            <a:gd name="adj2" fmla="val 184127"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="accent2"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1"/>
+            <a:t>ロボット</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="四角形: 角を丸くする 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE062FD8-C32A-EA7D-90A6-3867E2AA1BE6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9763125" y="5238751"/>
+          <a:ext cx="2143126" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ロボット本体は既製品を購入</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>→センサ等は後から追加</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="184731" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="テキスト ボックス 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{102DF7C6-9DB5-09D4-D148-98F88FDB1D18}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10772775" y="2695575"/>
+          <a:ext cx="184731" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="吹き出し: 角を丸めた四角形 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{196A23D9-23D1-0AA8-14CD-533AD2240272}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5953125" y="704850"/>
+          <a:ext cx="5953125" cy="1438275"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -61568"/>
+            <a:gd name="adj2" fmla="val -32833"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" numCol="2" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>シミュレーション</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+            <a:t>:rviz2</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>・自己位置推定</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>LiDAR</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>等による障害物検知</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>・追従走行の検証</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>etc</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>センサデータの可視化</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>IMU</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>→姿勢角</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>・モータ回転数→移動距離，制御デバッグ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>etc</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2123,8 +4142,1244 @@
   </sheetPr>
   <dimension ref="C6:BG30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="Y8" sqref="Y8"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="AQ9" sqref="AQ9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="6" spans="3:59" x14ac:dyDescent="0.4">
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1"/>
+      <c r="AA6" s="1"/>
+      <c r="AB6" s="1"/>
+      <c r="AC6" s="1"/>
+      <c r="AD6" s="1"/>
+      <c r="AE6" s="1"/>
+      <c r="AF6" s="1"/>
+      <c r="AG6" s="1"/>
+      <c r="AH6" s="1"/>
+      <c r="AI6" s="1"/>
+      <c r="AJ6" s="1"/>
+      <c r="AK6" s="1"/>
+      <c r="AL6" s="1"/>
+      <c r="AM6" s="1"/>
+      <c r="AN6" s="1"/>
+      <c r="AO6" s="1"/>
+      <c r="AP6" s="1"/>
+      <c r="AQ6" s="1"/>
+      <c r="AR6" s="1"/>
+      <c r="AS6" s="1"/>
+      <c r="AT6" s="1"/>
+      <c r="AU6" s="1"/>
+      <c r="AV6" s="1"/>
+      <c r="AW6" s="1"/>
+      <c r="AX6" s="1"/>
+      <c r="AY6" s="1"/>
+      <c r="AZ6" s="1"/>
+      <c r="BA6" s="1"/>
+      <c r="BB6" s="1"/>
+      <c r="BC6" s="1"/>
+      <c r="BD6" s="1"/>
+      <c r="BE6" s="1"/>
+      <c r="BF6" s="1"/>
+      <c r="BG6" s="1"/>
+    </row>
+    <row r="7" spans="3:59" x14ac:dyDescent="0.4">
+      <c r="C7" s="1"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="2"/>
+      <c r="AC7" s="2"/>
+      <c r="AD7" s="2"/>
+      <c r="AE7" s="2"/>
+      <c r="AF7" s="2"/>
+      <c r="AG7" s="2"/>
+      <c r="AH7" s="2"/>
+      <c r="AI7" s="2"/>
+      <c r="AJ7" s="2"/>
+      <c r="AK7" s="2"/>
+      <c r="AL7" s="1"/>
+      <c r="AM7" s="1"/>
+      <c r="AN7" s="1"/>
+      <c r="AO7" s="1"/>
+      <c r="AP7" s="1"/>
+      <c r="AQ7" s="1"/>
+      <c r="AR7" s="1"/>
+      <c r="AS7" s="1"/>
+      <c r="AT7" s="1"/>
+      <c r="AU7" s="1"/>
+      <c r="AV7" s="1"/>
+      <c r="AW7" s="1"/>
+      <c r="AX7" s="1"/>
+      <c r="AY7" s="1"/>
+      <c r="AZ7" s="1"/>
+      <c r="BA7" s="1"/>
+      <c r="BB7" s="1"/>
+      <c r="BC7" s="1"/>
+      <c r="BD7" s="1"/>
+      <c r="BE7" s="1"/>
+      <c r="BF7" s="1"/>
+      <c r="BG7" s="1"/>
+    </row>
+    <row r="8" spans="3:59" x14ac:dyDescent="0.4">
+      <c r="C8" s="1"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="2"/>
+      <c r="AC8" s="2"/>
+      <c r="AD8" s="2"/>
+      <c r="AE8" s="2"/>
+      <c r="AF8" s="2"/>
+      <c r="AG8" s="2"/>
+      <c r="AH8" s="2"/>
+      <c r="AI8" s="2"/>
+      <c r="AJ8" s="2"/>
+      <c r="AK8" s="2"/>
+      <c r="AL8" s="1"/>
+      <c r="AM8" s="1"/>
+      <c r="AN8" s="1"/>
+      <c r="AO8" s="1"/>
+      <c r="AP8" s="1"/>
+      <c r="AQ8" s="1"/>
+      <c r="AR8" s="1"/>
+      <c r="AS8" s="1"/>
+      <c r="AT8" s="1"/>
+      <c r="AU8" s="1"/>
+      <c r="AV8" s="1"/>
+      <c r="AW8" s="1"/>
+      <c r="AX8" s="1"/>
+      <c r="AY8" s="1"/>
+      <c r="AZ8" s="1"/>
+      <c r="BA8" s="1"/>
+      <c r="BB8" s="1"/>
+      <c r="BC8" s="1"/>
+      <c r="BD8" s="1"/>
+      <c r="BE8" s="1"/>
+      <c r="BF8" s="1"/>
+      <c r="BG8" s="1"/>
+    </row>
+    <row r="9" spans="3:59" x14ac:dyDescent="0.4">
+      <c r="C9" s="1"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="2"/>
+      <c r="AC9" s="2"/>
+      <c r="AD9" s="2"/>
+      <c r="AE9" s="2"/>
+      <c r="AF9" s="2"/>
+      <c r="AG9" s="2"/>
+      <c r="AH9" s="2"/>
+      <c r="AI9" s="2"/>
+      <c r="AJ9" s="2"/>
+      <c r="AK9" s="2"/>
+      <c r="AL9" s="1"/>
+      <c r="AM9" s="1"/>
+      <c r="AN9" s="1"/>
+      <c r="AO9" s="1"/>
+      <c r="AP9" s="1"/>
+      <c r="AQ9" s="1"/>
+      <c r="AR9" s="1"/>
+      <c r="AS9" s="1"/>
+      <c r="AT9" s="1"/>
+      <c r="AU9" s="1"/>
+      <c r="AV9" s="1"/>
+      <c r="AW9" s="1"/>
+      <c r="AX9" s="1"/>
+      <c r="AY9" s="1"/>
+      <c r="AZ9" s="1"/>
+      <c r="BA9" s="1"/>
+      <c r="BB9" s="1"/>
+      <c r="BC9" s="1"/>
+      <c r="BD9" s="1"/>
+      <c r="BE9" s="1"/>
+      <c r="BF9" s="1"/>
+      <c r="BG9" s="1"/>
+    </row>
+    <row r="10" spans="3:59" x14ac:dyDescent="0.4">
+      <c r="C10" s="1"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+      <c r="AA10" s="2"/>
+      <c r="AB10" s="2"/>
+      <c r="AC10" s="2"/>
+      <c r="AD10" s="2"/>
+      <c r="AE10" s="2"/>
+      <c r="AF10" s="2"/>
+      <c r="AG10" s="2"/>
+      <c r="AH10" s="2"/>
+      <c r="AI10" s="2"/>
+      <c r="AJ10" s="2"/>
+      <c r="AK10" s="2"/>
+      <c r="AL10" s="1"/>
+      <c r="AM10" s="1"/>
+      <c r="AN10" s="1"/>
+      <c r="AO10" s="1"/>
+      <c r="AP10" s="1"/>
+      <c r="AQ10" s="1"/>
+      <c r="AR10" s="1"/>
+      <c r="AS10" s="1"/>
+      <c r="AT10" s="1"/>
+      <c r="AU10" s="1"/>
+      <c r="AV10" s="1"/>
+      <c r="AW10" s="1"/>
+      <c r="AX10" s="1"/>
+      <c r="AY10" s="1"/>
+      <c r="AZ10" s="1"/>
+      <c r="BA10" s="1"/>
+      <c r="BB10" s="1"/>
+      <c r="BC10" s="1"/>
+      <c r="BD10" s="1"/>
+      <c r="BE10" s="1"/>
+      <c r="BF10" s="1"/>
+      <c r="BG10" s="1"/>
+    </row>
+    <row r="11" spans="3:59" x14ac:dyDescent="0.4">
+      <c r="C11" s="1"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2"/>
+      <c r="X11" s="2"/>
+      <c r="AA11" s="2"/>
+      <c r="AB11" s="2"/>
+      <c r="AC11" s="2"/>
+      <c r="AD11" s="2"/>
+      <c r="AE11" s="2"/>
+      <c r="AF11" s="2"/>
+      <c r="AG11" s="2"/>
+      <c r="AH11" s="2"/>
+      <c r="AI11" s="2"/>
+      <c r="AJ11" s="2"/>
+      <c r="AK11" s="2"/>
+      <c r="AL11" s="1"/>
+      <c r="AM11" s="1"/>
+      <c r="AN11" s="1"/>
+      <c r="AO11" s="1"/>
+      <c r="AP11" s="1"/>
+      <c r="AQ11" s="1"/>
+      <c r="AR11" s="1"/>
+      <c r="AS11" s="1"/>
+      <c r="AT11" s="1"/>
+      <c r="AU11" s="1"/>
+      <c r="AV11" s="1"/>
+      <c r="AW11" s="1"/>
+      <c r="AX11" s="1"/>
+      <c r="AY11" s="1"/>
+      <c r="AZ11" s="1"/>
+      <c r="BA11" s="1"/>
+      <c r="BB11" s="1"/>
+      <c r="BC11" s="1"/>
+      <c r="BD11" s="1"/>
+      <c r="BE11" s="1"/>
+      <c r="BF11" s="1"/>
+      <c r="BG11" s="1"/>
+    </row>
+    <row r="12" spans="3:59" x14ac:dyDescent="0.4">
+      <c r="C12" s="1"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
+      <c r="X12" s="2"/>
+      <c r="AA12" s="2"/>
+      <c r="AB12" s="2"/>
+      <c r="AC12" s="2"/>
+      <c r="AD12" s="2"/>
+      <c r="AE12" s="2"/>
+      <c r="AF12" s="2"/>
+      <c r="AG12" s="2"/>
+      <c r="AH12" s="2"/>
+      <c r="AI12" s="2"/>
+      <c r="AJ12" s="2"/>
+      <c r="AK12" s="2"/>
+      <c r="AL12" s="1"/>
+      <c r="AM12" s="1"/>
+      <c r="AN12" s="1"/>
+      <c r="AO12" s="1"/>
+      <c r="AP12" s="1"/>
+      <c r="AQ12" s="1"/>
+      <c r="AR12" s="1"/>
+      <c r="AS12" s="1"/>
+      <c r="AT12" s="1"/>
+      <c r="AU12" s="1"/>
+      <c r="AV12" s="1"/>
+      <c r="AW12" s="1"/>
+      <c r="AX12" s="1"/>
+      <c r="AY12" s="1"/>
+      <c r="AZ12" s="1"/>
+      <c r="BA12" s="1"/>
+      <c r="BB12" s="1"/>
+      <c r="BC12" s="1"/>
+      <c r="BD12" s="1"/>
+      <c r="BE12" s="1"/>
+      <c r="BF12" s="1"/>
+      <c r="BG12" s="1"/>
+    </row>
+    <row r="13" spans="3:59" x14ac:dyDescent="0.4">
+      <c r="C13" s="1"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="2"/>
+      <c r="X13" s="2"/>
+      <c r="AF13" s="2"/>
+      <c r="AG13" s="2"/>
+      <c r="AH13" s="2"/>
+      <c r="AI13" s="2"/>
+      <c r="AJ13" s="2"/>
+      <c r="AK13" s="2"/>
+      <c r="AL13" s="2"/>
+      <c r="AM13" s="2"/>
+      <c r="AN13" s="2"/>
+      <c r="AO13" s="2"/>
+      <c r="AP13" s="2"/>
+      <c r="AQ13" s="1"/>
+      <c r="AR13" s="1"/>
+      <c r="AS13" s="1"/>
+      <c r="AT13" s="1"/>
+      <c r="AU13" s="1"/>
+      <c r="AV13" s="1"/>
+      <c r="AW13" s="1"/>
+      <c r="AX13" s="1"/>
+      <c r="AY13" s="1"/>
+      <c r="AZ13" s="1"/>
+      <c r="BA13" s="1"/>
+      <c r="BB13" s="1"/>
+      <c r="BC13" s="1"/>
+      <c r="BD13" s="1"/>
+      <c r="BE13" s="1"/>
+      <c r="BF13" s="1"/>
+    </row>
+    <row r="14" spans="3:59" x14ac:dyDescent="0.4">
+      <c r="C14" s="1"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="2"/>
+      <c r="X14" s="2"/>
+      <c r="AF14" s="2"/>
+      <c r="AG14" s="2"/>
+      <c r="AH14" s="2"/>
+      <c r="AI14" s="2"/>
+      <c r="AJ14" s="2"/>
+      <c r="AK14" s="2"/>
+      <c r="AL14" s="2"/>
+      <c r="AM14" s="2"/>
+      <c r="AN14" s="2"/>
+      <c r="AO14" s="2"/>
+      <c r="AP14" s="2"/>
+      <c r="AQ14" s="1"/>
+      <c r="AR14" s="1"/>
+      <c r="AS14" s="1"/>
+      <c r="AT14" s="1"/>
+      <c r="AU14" s="1"/>
+      <c r="AV14" s="1"/>
+      <c r="AW14" s="1"/>
+      <c r="AX14" s="1"/>
+      <c r="AY14" s="1"/>
+      <c r="AZ14" s="1"/>
+      <c r="BA14" s="1"/>
+      <c r="BB14" s="1"/>
+      <c r="BC14" s="1"/>
+      <c r="BD14" s="1"/>
+      <c r="BE14" s="1"/>
+      <c r="BF14" s="1"/>
+    </row>
+    <row r="15" spans="3:59" x14ac:dyDescent="0.4">
+      <c r="C15" s="1"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="2"/>
+      <c r="X15" s="2"/>
+      <c r="AF15" s="2"/>
+      <c r="AG15" s="2"/>
+      <c r="AH15" s="2"/>
+      <c r="AI15" s="2"/>
+      <c r="AJ15" s="2"/>
+      <c r="AK15" s="2"/>
+      <c r="AL15" s="2"/>
+      <c r="AM15" s="2"/>
+      <c r="AN15" s="2"/>
+      <c r="AO15" s="2"/>
+      <c r="AP15" s="2"/>
+      <c r="AQ15" s="1"/>
+      <c r="AR15" s="1"/>
+      <c r="AS15" s="1"/>
+      <c r="AT15" s="1"/>
+      <c r="AU15" s="1"/>
+      <c r="AV15" s="1"/>
+      <c r="AW15" s="1"/>
+      <c r="AX15" s="1"/>
+      <c r="AY15" s="1"/>
+      <c r="AZ15" s="1"/>
+      <c r="BA15" s="1"/>
+      <c r="BB15" s="1"/>
+      <c r="BC15" s="1"/>
+      <c r="BD15" s="1"/>
+      <c r="BE15" s="1"/>
+      <c r="BF15" s="1"/>
+    </row>
+    <row r="16" spans="3:59" x14ac:dyDescent="0.4">
+      <c r="C16" s="1"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
+      <c r="X16" s="2"/>
+      <c r="AF16" s="2"/>
+      <c r="AG16" s="2"/>
+      <c r="AH16" s="2"/>
+      <c r="AI16" s="2"/>
+      <c r="AJ16" s="2"/>
+      <c r="AK16" s="2"/>
+      <c r="AL16" s="2"/>
+      <c r="AM16" s="2"/>
+      <c r="AN16" s="2"/>
+      <c r="AO16" s="2"/>
+      <c r="AP16" s="2"/>
+      <c r="AQ16" s="1"/>
+      <c r="AR16" s="1"/>
+      <c r="AS16" s="1"/>
+      <c r="AT16" s="1"/>
+      <c r="AU16" s="1"/>
+      <c r="AV16" s="1"/>
+      <c r="AW16" s="1"/>
+      <c r="AX16" s="1"/>
+      <c r="AY16" s="1"/>
+      <c r="AZ16" s="1"/>
+      <c r="BA16" s="1"/>
+      <c r="BB16" s="1"/>
+      <c r="BC16" s="1"/>
+      <c r="BD16" s="1"/>
+      <c r="BE16" s="1"/>
+      <c r="BF16" s="1"/>
+    </row>
+    <row r="17" spans="3:59" x14ac:dyDescent="0.4">
+      <c r="C17" s="1"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+      <c r="X17" s="2"/>
+      <c r="AF17" s="2"/>
+      <c r="AG17" s="2"/>
+      <c r="AH17" s="2"/>
+      <c r="AI17" s="2"/>
+      <c r="AJ17" s="2"/>
+      <c r="AK17" s="2"/>
+      <c r="AL17" s="2"/>
+      <c r="AM17" s="2"/>
+      <c r="AN17" s="2"/>
+      <c r="AO17" s="2"/>
+      <c r="AP17" s="2"/>
+      <c r="AQ17" s="1"/>
+      <c r="AR17" s="1"/>
+      <c r="AS17" s="1"/>
+      <c r="AT17" s="1"/>
+      <c r="AU17" s="1"/>
+      <c r="AV17" s="1"/>
+      <c r="AW17" s="1"/>
+      <c r="AX17" s="1"/>
+      <c r="AY17" s="1"/>
+      <c r="AZ17" s="1"/>
+      <c r="BA17" s="1"/>
+      <c r="BB17" s="1"/>
+      <c r="BC17" s="1"/>
+      <c r="BD17" s="1"/>
+      <c r="BE17" s="1"/>
+      <c r="BF17" s="1"/>
+    </row>
+    <row r="18" spans="3:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C18" s="1"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
+      <c r="X18" s="2"/>
+      <c r="AF18" s="2"/>
+      <c r="AG18" s="2"/>
+      <c r="AH18" s="2"/>
+      <c r="AI18" s="2"/>
+      <c r="AJ18" s="2"/>
+      <c r="AK18" s="2"/>
+      <c r="AL18" s="2"/>
+      <c r="AM18" s="2"/>
+      <c r="AN18" s="2"/>
+      <c r="AO18" s="2"/>
+      <c r="AP18" s="2"/>
+      <c r="AQ18" s="1"/>
+      <c r="AR18" s="1"/>
+      <c r="AS18" s="1"/>
+      <c r="AT18" s="1"/>
+      <c r="AU18" s="1"/>
+      <c r="AV18" s="1"/>
+      <c r="AW18" s="1"/>
+      <c r="AX18" s="1"/>
+      <c r="AY18" s="1"/>
+      <c r="AZ18" s="1"/>
+      <c r="BA18" s="1"/>
+      <c r="BB18" s="1"/>
+      <c r="BC18" s="1"/>
+      <c r="BD18" s="1"/>
+      <c r="BE18" s="1"/>
+      <c r="BF18" s="1"/>
+    </row>
+    <row r="19" spans="3:59" x14ac:dyDescent="0.4">
+      <c r="C19" s="1"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
+      <c r="X19" s="2"/>
+      <c r="AB19" s="2"/>
+      <c r="AC19" s="2"/>
+      <c r="AD19" s="2"/>
+      <c r="AE19" s="2"/>
+      <c r="AF19" s="2"/>
+      <c r="AG19" s="2"/>
+      <c r="AH19" s="2"/>
+      <c r="AI19" s="2"/>
+      <c r="AJ19" s="2"/>
+      <c r="AQ19" s="1"/>
+      <c r="AR19" s="1"/>
+      <c r="AS19" s="1"/>
+      <c r="AT19" s="1"/>
+      <c r="AU19" s="1"/>
+      <c r="AV19" s="1"/>
+      <c r="AW19" s="1"/>
+      <c r="AX19" s="1"/>
+      <c r="AY19" s="1"/>
+      <c r="AZ19" s="1"/>
+      <c r="BA19" s="1"/>
+      <c r="BB19" s="1"/>
+      <c r="BC19" s="1"/>
+      <c r="BD19" s="1"/>
+      <c r="BE19" s="1"/>
+      <c r="BF19" s="1"/>
+    </row>
+    <row r="20" spans="3:59" x14ac:dyDescent="0.4">
+      <c r="C20" s="1"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="AQ20" s="1"/>
+      <c r="AR20" s="1"/>
+      <c r="AS20" s="1"/>
+      <c r="AT20" s="1"/>
+      <c r="AU20" s="1"/>
+      <c r="AV20" s="1"/>
+      <c r="AW20" s="1"/>
+      <c r="AX20" s="1"/>
+      <c r="AY20" s="1"/>
+      <c r="AZ20" s="1"/>
+      <c r="BA20" s="1"/>
+      <c r="BB20" s="1"/>
+      <c r="BC20" s="1"/>
+      <c r="BD20" s="1"/>
+      <c r="BE20" s="1"/>
+      <c r="BF20" s="1"/>
+    </row>
+    <row r="21" spans="3:59" x14ac:dyDescent="0.4">
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="2"/>
+      <c r="X21" s="2"/>
+      <c r="AB21" s="2"/>
+      <c r="AC21" s="2"/>
+      <c r="AD21" s="2"/>
+      <c r="AE21" s="2"/>
+      <c r="AF21" s="2"/>
+      <c r="AG21" s="2"/>
+      <c r="AH21" s="2"/>
+      <c r="AI21" s="2"/>
+      <c r="AJ21" s="2"/>
+      <c r="AR21" s="1"/>
+      <c r="AS21" s="1"/>
+      <c r="AT21" s="1"/>
+      <c r="AU21" s="1"/>
+      <c r="AV21" s="1"/>
+      <c r="AW21" s="1"/>
+      <c r="AX21" s="1"/>
+      <c r="AY21" s="1"/>
+      <c r="AZ21" s="1"/>
+      <c r="BA21" s="1"/>
+      <c r="BB21" s="1"/>
+      <c r="BC21" s="1"/>
+      <c r="BD21" s="1"/>
+      <c r="BE21" s="1"/>
+      <c r="BF21" s="1"/>
+      <c r="BG21" s="1"/>
+    </row>
+    <row r="22" spans="3:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2"/>
+      <c r="X22" s="2"/>
+      <c r="AB22" s="2"/>
+      <c r="AC22" s="2"/>
+      <c r="AD22" s="2"/>
+      <c r="AE22" s="2"/>
+      <c r="AF22" s="2"/>
+      <c r="AG22" s="2"/>
+      <c r="AH22" s="2"/>
+      <c r="AI22" s="2"/>
+      <c r="AJ22" s="2"/>
+      <c r="AK22" s="2"/>
+      <c r="AR22" s="1"/>
+      <c r="AS22" s="1"/>
+      <c r="AT22" s="1"/>
+      <c r="AU22" s="1"/>
+      <c r="AV22" s="1"/>
+      <c r="AW22" s="1"/>
+      <c r="AX22" s="1"/>
+      <c r="AY22" s="1"/>
+      <c r="AZ22" s="1"/>
+      <c r="BA22" s="1"/>
+      <c r="BB22" s="1"/>
+      <c r="BC22" s="1"/>
+      <c r="BD22" s="1"/>
+      <c r="BE22" s="1"/>
+      <c r="BF22" s="1"/>
+      <c r="BG22" s="1"/>
+    </row>
+    <row r="23" spans="3:59" x14ac:dyDescent="0.4">
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="2"/>
+      <c r="V23" s="2"/>
+      <c r="W23" s="2"/>
+      <c r="X23" s="2"/>
+      <c r="AB23" s="2"/>
+      <c r="AC23" s="2"/>
+      <c r="AD23" s="2"/>
+      <c r="AE23" s="2"/>
+      <c r="AF23" s="2"/>
+      <c r="AG23" s="2"/>
+      <c r="AH23" s="2"/>
+      <c r="AI23" s="2"/>
+      <c r="AJ23" s="2"/>
+      <c r="AK23" s="2"/>
+      <c r="AR23" s="1"/>
+      <c r="AS23" s="1"/>
+      <c r="AT23" s="1"/>
+      <c r="AU23" s="1"/>
+      <c r="AV23" s="1"/>
+      <c r="AW23" s="1"/>
+      <c r="AX23" s="1"/>
+      <c r="AY23" s="1"/>
+      <c r="AZ23" s="1"/>
+      <c r="BA23" s="1"/>
+      <c r="BB23" s="1"/>
+      <c r="BC23" s="1"/>
+      <c r="BD23" s="1"/>
+      <c r="BE23" s="1"/>
+      <c r="BF23" s="1"/>
+      <c r="BG23" s="1"/>
+    </row>
+    <row r="24" spans="3:59" x14ac:dyDescent="0.4">
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
+      <c r="U24" s="2"/>
+      <c r="V24" s="2"/>
+      <c r="W24" s="2"/>
+      <c r="X24" s="2"/>
+      <c r="AB24" s="2"/>
+      <c r="AC24" s="2"/>
+      <c r="AD24" s="2"/>
+      <c r="AE24" s="2"/>
+      <c r="AF24" s="2"/>
+      <c r="AG24" s="2"/>
+      <c r="AH24" s="2"/>
+      <c r="AI24" s="2"/>
+      <c r="AJ24" s="2"/>
+      <c r="AK24" s="2"/>
+      <c r="AR24" s="1"/>
+      <c r="AS24" s="1"/>
+      <c r="AT24" s="1"/>
+      <c r="AU24" s="1"/>
+      <c r="AV24" s="1"/>
+      <c r="AW24" s="1"/>
+      <c r="AX24" s="1"/>
+      <c r="AY24" s="1"/>
+      <c r="AZ24" s="1"/>
+      <c r="BA24" s="1"/>
+      <c r="BB24" s="1"/>
+      <c r="BC24" s="1"/>
+      <c r="BD24" s="1"/>
+      <c r="BE24" s="1"/>
+      <c r="BF24" s="1"/>
+      <c r="BG24" s="1"/>
+    </row>
+    <row r="25" spans="3:59" x14ac:dyDescent="0.4">
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+      <c r="U25" s="2"/>
+      <c r="V25" s="2"/>
+      <c r="W25" s="2"/>
+      <c r="X25" s="2"/>
+      <c r="AB25" s="2"/>
+      <c r="AC25" s="2"/>
+      <c r="AD25" s="2"/>
+      <c r="AE25" s="2"/>
+      <c r="AF25" s="2"/>
+      <c r="AG25" s="2"/>
+      <c r="AH25" s="2"/>
+      <c r="AI25" s="2"/>
+      <c r="AJ25" s="2"/>
+      <c r="AK25" s="2"/>
+      <c r="AR25" s="1"/>
+      <c r="AS25" s="1"/>
+      <c r="AT25" s="1"/>
+      <c r="AU25" s="1"/>
+      <c r="AV25" s="1"/>
+      <c r="AW25" s="1"/>
+      <c r="AX25" s="1"/>
+      <c r="AY25" s="1"/>
+      <c r="AZ25" s="1"/>
+      <c r="BA25" s="1"/>
+      <c r="BB25" s="1"/>
+      <c r="BC25" s="1"/>
+      <c r="BD25" s="1"/>
+      <c r="BE25" s="1"/>
+      <c r="BF25" s="1"/>
+      <c r="BG25" s="1"/>
+    </row>
+    <row r="26" spans="3:59" x14ac:dyDescent="0.4">
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
+      <c r="U26" s="2"/>
+      <c r="V26" s="2"/>
+      <c r="W26" s="2"/>
+      <c r="X26" s="2"/>
+      <c r="AB26" s="2"/>
+      <c r="AC26" s="2"/>
+      <c r="AD26" s="2"/>
+      <c r="AE26" s="2"/>
+      <c r="AF26" s="2"/>
+      <c r="AG26" s="2"/>
+      <c r="AH26" s="2"/>
+      <c r="AI26" s="2"/>
+      <c r="AJ26" s="2"/>
+      <c r="AK26" s="2"/>
+      <c r="AR26" s="1"/>
+      <c r="AS26" s="1"/>
+      <c r="AT26" s="1"/>
+      <c r="AU26" s="1"/>
+      <c r="AV26" s="1"/>
+      <c r="AW26" s="1"/>
+      <c r="AX26" s="1"/>
+      <c r="AY26" s="1"/>
+      <c r="AZ26" s="1"/>
+      <c r="BA26" s="1"/>
+      <c r="BB26" s="1"/>
+      <c r="BC26" s="1"/>
+      <c r="BD26" s="1"/>
+      <c r="BE26" s="1"/>
+      <c r="BF26" s="1"/>
+      <c r="BG26" s="1"/>
+    </row>
+    <row r="27" spans="3:59" x14ac:dyDescent="0.4">
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
+      <c r="U27" s="2"/>
+      <c r="V27" s="2"/>
+      <c r="W27" s="2"/>
+      <c r="X27" s="2"/>
+      <c r="AB27" s="2"/>
+      <c r="AC27" s="2"/>
+      <c r="AD27" s="2"/>
+      <c r="AE27" s="2"/>
+      <c r="AF27" s="2"/>
+      <c r="AG27" s="2"/>
+      <c r="AH27" s="2"/>
+      <c r="AI27" s="2"/>
+      <c r="AJ27" s="2"/>
+      <c r="AK27" s="2"/>
+      <c r="AR27" s="1"/>
+      <c r="AS27" s="1"/>
+      <c r="AT27" s="1"/>
+      <c r="AU27" s="1"/>
+      <c r="AV27" s="1"/>
+      <c r="AW27" s="1"/>
+      <c r="AX27" s="1"/>
+      <c r="AY27" s="1"/>
+      <c r="AZ27" s="1"/>
+      <c r="BA27" s="1"/>
+      <c r="BB27" s="1"/>
+      <c r="BC27" s="1"/>
+      <c r="BD27" s="1"/>
+      <c r="BE27" s="1"/>
+      <c r="BF27" s="1"/>
+      <c r="BG27" s="1"/>
+    </row>
+    <row r="28" spans="3:59" x14ac:dyDescent="0.4">
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
+      <c r="W28" s="1"/>
+      <c r="X28" s="1"/>
+      <c r="AB28" s="1"/>
+      <c r="AC28" s="1"/>
+      <c r="AD28" s="1"/>
+      <c r="AE28" s="1"/>
+      <c r="AF28" s="1"/>
+      <c r="AG28" s="1"/>
+      <c r="AH28" s="1"/>
+      <c r="AI28" s="1"/>
+      <c r="AJ28" s="1"/>
+      <c r="AK28" s="1"/>
+      <c r="AR28" s="1"/>
+      <c r="AS28" s="1"/>
+      <c r="AT28" s="1"/>
+      <c r="AU28" s="1"/>
+      <c r="AV28" s="1"/>
+      <c r="AW28" s="1"/>
+      <c r="AX28" s="1"/>
+      <c r="AY28" s="1"/>
+      <c r="AZ28" s="1"/>
+      <c r="BA28" s="1"/>
+      <c r="BB28" s="1"/>
+      <c r="BC28" s="1"/>
+      <c r="BD28" s="1"/>
+      <c r="BE28" s="1"/>
+      <c r="BF28" s="1"/>
+      <c r="BG28" s="1"/>
+    </row>
+    <row r="29" spans="3:59" x14ac:dyDescent="0.4">
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
+      <c r="U29" s="1"/>
+      <c r="V29" s="1"/>
+      <c r="W29" s="1"/>
+      <c r="X29" s="1"/>
+      <c r="AB29" s="1"/>
+      <c r="AC29" s="1"/>
+      <c r="AD29" s="1"/>
+      <c r="AE29" s="1"/>
+      <c r="AF29" s="1"/>
+      <c r="AG29" s="1"/>
+      <c r="AH29" s="1"/>
+      <c r="AI29" s="1"/>
+      <c r="AJ29" s="1"/>
+      <c r="AK29" s="1"/>
+      <c r="AM29" s="1"/>
+      <c r="AN29" s="1"/>
+      <c r="AO29" s="1"/>
+      <c r="AP29" s="1"/>
+      <c r="AQ29" s="1"/>
+      <c r="AR29" s="1"/>
+      <c r="AS29" s="1"/>
+      <c r="AT29" s="1"/>
+      <c r="AU29" s="1"/>
+      <c r="AV29" s="1"/>
+      <c r="AW29" s="1"/>
+      <c r="AX29" s="1"/>
+      <c r="AY29" s="1"/>
+      <c r="AZ29" s="1"/>
+      <c r="BA29" s="1"/>
+      <c r="BB29" s="1"/>
+      <c r="BC29" s="1"/>
+      <c r="BD29" s="1"/>
+      <c r="BE29" s="1"/>
+      <c r="BF29" s="1"/>
+      <c r="BG29" s="1"/>
+    </row>
+    <row r="30" spans="3:59" x14ac:dyDescent="0.4">
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+      <c r="T30" s="1"/>
+      <c r="U30" s="1"/>
+      <c r="V30" s="1"/>
+      <c r="W30" s="1"/>
+      <c r="X30" s="1"/>
+      <c r="Y30" s="1"/>
+      <c r="Z30" s="1"/>
+      <c r="AA30" s="1"/>
+      <c r="AB30" s="1"/>
+      <c r="AC30" s="1"/>
+      <c r="AD30" s="1"/>
+      <c r="AE30" s="1"/>
+      <c r="AF30" s="1"/>
+      <c r="AG30" s="1"/>
+      <c r="AH30" s="1"/>
+      <c r="AI30" s="1"/>
+      <c r="AJ30" s="1"/>
+      <c r="AK30" s="1"/>
+      <c r="AL30" s="1"/>
+      <c r="AM30" s="1"/>
+      <c r="AN30" s="1"/>
+      <c r="AO30" s="1"/>
+      <c r="AP30" s="1"/>
+      <c r="AQ30" s="1"/>
+      <c r="AR30" s="1"/>
+      <c r="AS30" s="1"/>
+      <c r="AT30" s="1"/>
+      <c r="AU30" s="1"/>
+      <c r="AV30" s="1"/>
+      <c r="AW30" s="1"/>
+      <c r="AX30" s="1"/>
+      <c r="AY30" s="1"/>
+      <c r="AZ30" s="1"/>
+      <c r="BA30" s="1"/>
+      <c r="BB30" s="1"/>
+      <c r="BC30" s="1"/>
+      <c r="BD30" s="1"/>
+      <c r="BE30" s="1"/>
+      <c r="BF30" s="1"/>
+      <c r="BG30" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="74" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C6FEDFF-D32B-4B54-8E15-1180EB23C948}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="C6:BG30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="BE9" sqref="BE9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
